--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 BA.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="832">
   <si>
     <t>Course</t>
   </si>
@@ -1846,6 +1846,15 @@
     <t>MGMT-470</t>
   </si>
   <si>
+    <t>MGMT-475</t>
+  </si>
+  <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
+    <t>70.37%</t>
+  </si>
+  <si>
     <t>MGMT-489</t>
   </si>
   <si>
@@ -2405,6 +2414,18 @@
   </si>
   <si>
     <t>57.78%</t>
+  </si>
+  <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>55.83%</t>
+  </si>
+  <si>
+    <t>34.17%</t>
   </si>
   <si>
     <t>SCMT-364</t>
@@ -2825,7 +2846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H588"/>
+  <dimension ref="A1:H595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7261,19 +7282,19 @@
     </row>
     <row r="408" spans="1:8">
       <c r="B408" t="s">
-        <v>382</v>
+        <v>611</v>
       </c>
       <c r="C408" t="n">
-        <v>3.471</v>
+        <v>3.704</v>
       </c>
       <c r="D408" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E408" t="s">
-        <v>612</v>
+        <v>508</v>
       </c>
       <c r="F408" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="G408" t="s">
         <v>44</v>
@@ -7282,67 +7303,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
-      <c r="B409" t="s">
-        <v>380</v>
-      </c>
-      <c r="C409" t="n">
-        <v>4</v>
-      </c>
-      <c r="D409" t="s">
-        <v>187</v>
-      </c>
-      <c r="E409" t="s">
-        <v>44</v>
-      </c>
-      <c r="F409" t="s">
-        <v>44</v>
-      </c>
-      <c r="G409" t="s">
-        <v>44</v>
-      </c>
-      <c r="H409" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="410" spans="1:8">
-      <c r="B410" t="s">
+      <c r="A410" t="s">
         <v>613</v>
-      </c>
-      <c r="C410" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D410" t="s">
-        <v>325</v>
-      </c>
-      <c r="E410" t="s">
-        <v>324</v>
-      </c>
-      <c r="F410" t="s">
-        <v>44</v>
-      </c>
-      <c r="G410" t="s">
-        <v>44</v>
-      </c>
-      <c r="H410" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="411" spans="1:8">
       <c r="B411" t="s">
-        <v>582</v>
+        <v>382</v>
       </c>
       <c r="C411" t="n">
-        <v>3.846</v>
+        <v>3.471</v>
       </c>
       <c r="D411" t="s">
         <v>614</v>
       </c>
       <c r="E411" t="s">
-        <v>44</v>
+        <v>615</v>
       </c>
       <c r="F411" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="G411" t="s">
         <v>44</v>
@@ -7351,26 +7331,67 @@
         <v>44</v>
       </c>
     </row>
+    <row r="412" spans="1:8">
+      <c r="B412" t="s">
+        <v>380</v>
+      </c>
+      <c r="C412" t="n">
+        <v>4</v>
+      </c>
+      <c r="D412" t="s">
+        <v>187</v>
+      </c>
+      <c r="E412" t="s">
+        <v>44</v>
+      </c>
+      <c r="F412" t="s">
+        <v>44</v>
+      </c>
+      <c r="G412" t="s">
+        <v>44</v>
+      </c>
+      <c r="H412" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="413" spans="1:8">
-      <c r="A413" t="s">
-        <v>615</v>
+      <c r="B413" t="s">
+        <v>616</v>
+      </c>
+      <c r="C413" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D413" t="s">
+        <v>325</v>
+      </c>
+      <c r="E413" t="s">
+        <v>324</v>
+      </c>
+      <c r="F413" t="s">
+        <v>44</v>
+      </c>
+      <c r="G413" t="s">
+        <v>44</v>
+      </c>
+      <c r="H413" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="414" spans="1:8">
       <c r="B414" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="C414" t="n">
-        <v>3.528</v>
+        <v>3.846</v>
       </c>
       <c r="D414" t="s">
         <v>617</v>
       </c>
       <c r="E414" t="s">
-        <v>618</v>
+        <v>44</v>
       </c>
       <c r="F414" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="G414" t="s">
         <v>44</v>
@@ -7381,75 +7402,75 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="B417" t="s">
+        <v>619</v>
+      </c>
+      <c r="C417" t="n">
+        <v>3.528</v>
+      </c>
+      <c r="D417" t="s">
         <v>620</v>
       </c>
-      <c r="C417" t="n">
+      <c r="E417" t="s">
+        <v>621</v>
+      </c>
+      <c r="F417" t="s">
+        <v>44</v>
+      </c>
+      <c r="G417" t="s">
+        <v>44</v>
+      </c>
+      <c r="H417" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="B420" t="s">
+        <v>623</v>
+      </c>
+      <c r="C420" t="n">
         <v>3.507</v>
       </c>
-      <c r="D417" t="s">
-        <v>621</v>
-      </c>
-      <c r="E417" t="s">
-        <v>622</v>
-      </c>
-      <c r="F417" t="s">
-        <v>44</v>
-      </c>
-      <c r="G417" t="s">
-        <v>44</v>
-      </c>
-      <c r="H417" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="B418" t="s">
-        <v>623</v>
-      </c>
-      <c r="C418" t="n">
-        <v>3.4845</v>
-      </c>
-      <c r="D418" t="s">
-        <v>599</v>
-      </c>
-      <c r="E418" t="s">
+      <c r="D420" t="s">
         <v>624</v>
       </c>
-      <c r="F418" t="s">
-        <v>586</v>
-      </c>
-      <c r="G418" t="s">
-        <v>44</v>
-      </c>
-      <c r="H418" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="A420" t="s">
+      <c r="E420" t="s">
         <v>625</v>
+      </c>
+      <c r="F420" t="s">
+        <v>44</v>
+      </c>
+      <c r="G420" t="s">
+        <v>44</v>
+      </c>
+      <c r="H420" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="B421" t="s">
-        <v>547</v>
+        <v>626</v>
       </c>
       <c r="C421" t="n">
-        <v>3.647</v>
+        <v>3.4845</v>
       </c>
       <c r="D421" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="E421" t="s">
-        <v>25</v>
+        <v>627</v>
       </c>
       <c r="F421" t="s">
-        <v>44</v>
+        <v>586</v>
       </c>
       <c r="G421" t="s">
         <v>44</v>
@@ -7460,21 +7481,21 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="B424" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C424" t="n">
-        <v>3.568</v>
+        <v>3.647</v>
       </c>
       <c r="D424" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E424" t="s">
-        <v>629</v>
+        <v>25</v>
       </c>
       <c r="F424" t="s">
         <v>44</v>
@@ -7493,16 +7514,16 @@
     </row>
     <row r="427" spans="1:8">
       <c r="B427" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="C427" t="n">
-        <v>3.692</v>
+        <v>3.568</v>
       </c>
       <c r="D427" t="s">
         <v>631</v>
       </c>
       <c r="E427" t="s">
-        <v>19</v>
+        <v>632</v>
       </c>
       <c r="F427" t="s">
         <v>44</v>
@@ -7516,21 +7537,21 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="430" spans="1:8">
       <c r="B430" t="s">
-        <v>633</v>
+        <v>532</v>
       </c>
       <c r="C430" t="n">
-        <v>3.69</v>
+        <v>3.692</v>
       </c>
       <c r="D430" t="s">
         <v>634</v>
       </c>
       <c r="E430" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F430" t="s">
         <v>44</v>
@@ -7552,13 +7573,13 @@
         <v>636</v>
       </c>
       <c r="C433" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="D433" t="s">
-        <v>187</v>
+        <v>637</v>
       </c>
       <c r="E433" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F433" t="s">
         <v>44</v>
@@ -7572,21 +7593,21 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="436" spans="1:8">
       <c r="B436" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C436" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D436" t="s">
-        <v>383</v>
+        <v>187</v>
       </c>
       <c r="E436" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="F436" t="s">
         <v>44</v>
@@ -7600,21 +7621,21 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="439" spans="1:8">
       <c r="B439" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C439" t="n">
-        <v>3.385</v>
+        <v>3.8</v>
       </c>
       <c r="D439" t="s">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="E439" t="s">
-        <v>641</v>
+        <v>302</v>
       </c>
       <c r="F439" t="s">
         <v>44</v>
@@ -7633,19 +7654,19 @@
     </row>
     <row r="442" spans="1:8">
       <c r="B442" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C442" t="n">
-        <v>3.371</v>
+        <v>3.385</v>
       </c>
       <c r="D442" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E442" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F442" t="s">
-        <v>644</v>
+        <v>44</v>
       </c>
       <c r="G442" t="s">
         <v>44</v>
@@ -7661,19 +7682,19 @@
     </row>
     <row r="445" spans="1:8">
       <c r="B445" t="s">
+        <v>643</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="D445" t="s">
+        <v>289</v>
+      </c>
+      <c r="E445" t="s">
         <v>646</v>
       </c>
-      <c r="C445" t="n">
-        <v>3.679</v>
-      </c>
-      <c r="D445" t="s">
-        <v>596</v>
-      </c>
-      <c r="E445" t="s">
+      <c r="F445" t="s">
         <v>647</v>
-      </c>
-      <c r="F445" t="s">
-        <v>44</v>
       </c>
       <c r="G445" t="s">
         <v>44</v>
@@ -7689,263 +7710,263 @@
     </row>
     <row r="448" spans="1:8">
       <c r="B448" t="s">
-        <v>368</v>
+        <v>649</v>
       </c>
       <c r="C448" t="n">
-        <v>3.59</v>
+        <v>3.679</v>
       </c>
       <c r="D448" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
       <c r="E448" t="s">
         <v>650</v>
       </c>
       <c r="F448" t="s">
+        <v>44</v>
+      </c>
+      <c r="G448" t="s">
+        <v>44</v>
+      </c>
+      <c r="H448" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="B449" t="s">
+        <v>611</v>
+      </c>
+      <c r="C449" t="n">
+        <v>4</v>
+      </c>
+      <c r="D449" t="s">
+        <v>187</v>
+      </c>
+      <c r="E449" t="s">
+        <v>44</v>
+      </c>
+      <c r="F449" t="s">
+        <v>44</v>
+      </c>
+      <c r="G449" t="s">
+        <v>44</v>
+      </c>
+      <c r="H449" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" t="s">
         <v>651</v>
       </c>
-      <c r="G448" t="s">
-        <v>44</v>
-      </c>
-      <c r="H448" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="A450" t="s">
+    </row>
+    <row r="452" spans="1:8">
+      <c r="B452" t="s">
+        <v>368</v>
+      </c>
+      <c r="C452" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="D452" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="451" spans="1:8">
-      <c r="B451" t="s">
+      <c r="E452" t="s">
         <v>653</v>
       </c>
-      <c r="C451" t="n">
+      <c r="F452" t="s">
+        <v>654</v>
+      </c>
+      <c r="G452" t="s">
+        <v>44</v>
+      </c>
+      <c r="H452" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="B455" t="s">
+        <v>656</v>
+      </c>
+      <c r="C455" t="n">
         <v>3.75</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D455" t="s">
         <v>325</v>
       </c>
-      <c r="E451" t="s">
+      <c r="E455" t="s">
         <v>324</v>
       </c>
-      <c r="F451" t="s">
-        <v>44</v>
-      </c>
-      <c r="G451" t="s">
-        <v>44</v>
-      </c>
-      <c r="H451" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="A453" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
-      <c r="B454" t="s">
-        <v>646</v>
-      </c>
-      <c r="C454" t="n">
+      <c r="F455" t="s">
+        <v>44</v>
+      </c>
+      <c r="G455" t="s">
+        <v>44</v>
+      </c>
+      <c r="H455" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="B458" t="s">
+        <v>649</v>
+      </c>
+      <c r="C458" t="n">
         <v>3.405</v>
       </c>
-      <c r="D454" t="s">
-        <v>655</v>
-      </c>
-      <c r="E454" t="s">
-        <v>656</v>
-      </c>
-      <c r="F454" t="s">
-        <v>44</v>
-      </c>
-      <c r="G454" t="s">
-        <v>44</v>
-      </c>
-      <c r="H454" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="A456" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
-      <c r="B457" t="s">
+      <c r="D458" t="s">
+        <v>658</v>
+      </c>
+      <c r="E458" t="s">
+        <v>659</v>
+      </c>
+      <c r="F458" t="s">
+        <v>44</v>
+      </c>
+      <c r="G458" t="s">
+        <v>44</v>
+      </c>
+      <c r="H458" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="B461" t="s">
         <v>562</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C461" t="n">
         <v>3.2395</v>
       </c>
-      <c r="D457" t="s">
-        <v>658</v>
-      </c>
-      <c r="E457" t="s">
+      <c r="D461" t="s">
+        <v>661</v>
+      </c>
+      <c r="E461" t="s">
         <v>100</v>
       </c>
-      <c r="F457" t="s">
+      <c r="F461" t="s">
         <v>220</v>
       </c>
-      <c r="G457" t="s">
-        <v>44</v>
-      </c>
-      <c r="H457" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="A459" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8">
-      <c r="B460" t="s">
+      <c r="G461" t="s">
+        <v>44</v>
+      </c>
+      <c r="H461" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="B464" t="s">
         <v>606</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C464" t="n">
         <v>3.458</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D464" t="s">
         <v>124</v>
       </c>
-      <c r="E460" t="s">
-        <v>660</v>
-      </c>
-      <c r="F460" t="s">
+      <c r="E464" t="s">
+        <v>663</v>
+      </c>
+      <c r="F464" t="s">
         <v>313</v>
       </c>
-      <c r="G460" t="s">
-        <v>44</v>
-      </c>
-      <c r="H460" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
-      <c r="A462" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8">
-      <c r="B463" t="s">
-        <v>616</v>
-      </c>
-      <c r="C463" t="n">
+      <c r="G464" t="s">
+        <v>44</v>
+      </c>
+      <c r="H464" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="B467" t="s">
+        <v>619</v>
+      </c>
+      <c r="C467" t="n">
         <v>3.954</v>
       </c>
-      <c r="D463" t="s">
-        <v>662</v>
-      </c>
-      <c r="E463" t="s">
+      <c r="D467" t="s">
+        <v>665</v>
+      </c>
+      <c r="E467" t="s">
         <v>540</v>
       </c>
-      <c r="F463" t="s">
-        <v>44</v>
-      </c>
-      <c r="G463" t="s">
-        <v>44</v>
-      </c>
-      <c r="H463" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="A465" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8">
-      <c r="B466" t="s">
+      <c r="F467" t="s">
+        <v>44</v>
+      </c>
+      <c r="G467" t="s">
+        <v>44</v>
+      </c>
+      <c r="H467" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="B470" t="s">
         <v>380</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C470" t="n">
         <v>3.875</v>
       </c>
-      <c r="D466" t="s">
-        <v>664</v>
-      </c>
-      <c r="E466" t="s">
+      <c r="D470" t="s">
+        <v>667</v>
+      </c>
+      <c r="E470" t="s">
         <v>220</v>
       </c>
-      <c r="F466" t="s">
-        <v>44</v>
-      </c>
-      <c r="G466" t="s">
-        <v>44</v>
-      </c>
-      <c r="H466" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="A468" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
-      <c r="B469" t="s">
-        <v>594</v>
-      </c>
-      <c r="C469" t="n">
-        <v>3.5357</v>
-      </c>
-      <c r="D469" t="s">
-        <v>666</v>
-      </c>
-      <c r="E469" t="s">
-        <v>667</v>
-      </c>
-      <c r="F469" t="s">
-        <v>44</v>
-      </c>
-      <c r="G469" t="s">
-        <v>44</v>
-      </c>
-      <c r="H469" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
-      <c r="A471" t="s">
+      <c r="F470" t="s">
+        <v>44</v>
+      </c>
+      <c r="G470" t="s">
+        <v>44</v>
+      </c>
+      <c r="H470" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" t="s">
         <v>668</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
-      <c r="B472" t="s">
-        <v>669</v>
-      </c>
-      <c r="C472" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="D472" t="s">
-        <v>670</v>
-      </c>
-      <c r="E472" t="s">
-        <v>671</v>
-      </c>
-      <c r="F472" t="s">
-        <v>540</v>
-      </c>
-      <c r="G472" t="s">
-        <v>44</v>
-      </c>
-      <c r="H472" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="473" spans="1:8">
       <c r="B473" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="C473" t="n">
-        <v>3.667</v>
+        <v>3.5357</v>
       </c>
       <c r="D473" t="s">
-        <v>153</v>
+        <v>669</v>
       </c>
       <c r="E473" t="s">
-        <v>96</v>
+        <v>670</v>
       </c>
       <c r="F473" t="s">
         <v>44</v>
@@ -7959,15 +7980,15 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="B476" t="s">
-        <v>377</v>
+        <v>672</v>
       </c>
       <c r="C476" t="n">
-        <v>3.236</v>
+        <v>3.727</v>
       </c>
       <c r="D476" t="s">
         <v>673</v>
@@ -7976,27 +7997,27 @@
         <v>674</v>
       </c>
       <c r="F476" t="s">
-        <v>675</v>
+        <v>540</v>
       </c>
       <c r="G476" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="H476" t="s">
-        <v>677</v>
+        <v>44</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="B477" t="s">
-        <v>678</v>
+        <v>547</v>
       </c>
       <c r="C477" t="n">
-        <v>4</v>
+        <v>3.667</v>
       </c>
       <c r="D477" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E477" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F477" t="s">
         <v>44</v>
@@ -8010,30 +8031,30 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="B480" t="s">
+        <v>377</v>
+      </c>
+      <c r="C480" t="n">
+        <v>3.236</v>
+      </c>
+      <c r="D480" t="s">
+        <v>676</v>
+      </c>
+      <c r="E480" t="s">
+        <v>677</v>
+      </c>
+      <c r="F480" t="s">
+        <v>678</v>
+      </c>
+      <c r="G480" t="s">
+        <v>679</v>
+      </c>
+      <c r="H480" t="s">
         <v>680</v>
-      </c>
-      <c r="C480" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="D480" t="s">
-        <v>574</v>
-      </c>
-      <c r="E480" t="s">
-        <v>643</v>
-      </c>
-      <c r="F480" t="s">
-        <v>449</v>
-      </c>
-      <c r="G480" t="s">
-        <v>44</v>
-      </c>
-      <c r="H480" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -8041,67 +8062,67 @@
         <v>681</v>
       </c>
       <c r="C481" t="n">
-        <v>3.568</v>
+        <v>4</v>
       </c>
       <c r="D481" t="s">
+        <v>187</v>
+      </c>
+      <c r="E481" t="s">
+        <v>44</v>
+      </c>
+      <c r="F481" t="s">
+        <v>44</v>
+      </c>
+      <c r="G481" t="s">
+        <v>44</v>
+      </c>
+      <c r="H481" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" t="s">
         <v>682</v>
       </c>
-      <c r="E481" t="s">
-        <v>467</v>
-      </c>
-      <c r="F481" t="s">
+    </row>
+    <row r="484" spans="1:8">
+      <c r="B484" t="s">
         <v>683</v>
       </c>
-      <c r="G481" t="s">
-        <v>44</v>
-      </c>
-      <c r="H481" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="B482" t="s">
-        <v>684</v>
-      </c>
-      <c r="C482" t="n">
-        <v>3.683</v>
-      </c>
-      <c r="D482" t="s">
-        <v>685</v>
-      </c>
-      <c r="E482" t="s">
-        <v>181</v>
-      </c>
-      <c r="F482" t="s">
-        <v>44</v>
-      </c>
-      <c r="G482" t="s">
-        <v>44</v>
-      </c>
-      <c r="H482" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="A484" t="s">
-        <v>686</v>
+      <c r="C484" t="n">
+        <v>3.381</v>
+      </c>
+      <c r="D484" t="s">
+        <v>574</v>
+      </c>
+      <c r="E484" t="s">
+        <v>646</v>
+      </c>
+      <c r="F484" t="s">
+        <v>449</v>
+      </c>
+      <c r="G484" t="s">
+        <v>44</v>
+      </c>
+      <c r="H484" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="B485" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C485" t="n">
-        <v>3.4487</v>
+        <v>3.568</v>
       </c>
       <c r="D485" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E485" t="s">
-        <v>689</v>
+        <v>467</v>
       </c>
       <c r="F485" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G485" t="s">
         <v>44</v>
@@ -8112,16 +8133,16 @@
     </row>
     <row r="486" spans="1:8">
       <c r="B486" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C486" t="n">
-        <v>3.742</v>
+        <v>3.683</v>
       </c>
       <c r="D486" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E486" t="s">
-        <v>693</v>
+        <v>181</v>
       </c>
       <c r="F486" t="s">
         <v>44</v>
@@ -8135,302 +8156,302 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="489" spans="1:8">
       <c r="B489" t="s">
+        <v>690</v>
+      </c>
+      <c r="C489" t="n">
+        <v>3.4487</v>
+      </c>
+      <c r="D489" t="s">
+        <v>691</v>
+      </c>
+      <c r="E489" t="s">
+        <v>692</v>
+      </c>
+      <c r="F489" t="s">
+        <v>693</v>
+      </c>
+      <c r="G489" t="s">
+        <v>44</v>
+      </c>
+      <c r="H489" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="B490" t="s">
+        <v>694</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3.742</v>
+      </c>
+      <c r="D490" t="s">
+        <v>695</v>
+      </c>
+      <c r="E490" t="s">
+        <v>696</v>
+      </c>
+      <c r="F490" t="s">
+        <v>44</v>
+      </c>
+      <c r="G490" t="s">
+        <v>44</v>
+      </c>
+      <c r="H490" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="B493" t="s">
+        <v>684</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3.1505</v>
+      </c>
+      <c r="D493" t="s">
+        <v>698</v>
+      </c>
+      <c r="E493" t="s">
+        <v>115</v>
+      </c>
+      <c r="F493" t="s">
+        <v>121</v>
+      </c>
+      <c r="G493" t="s">
+        <v>44</v>
+      </c>
+      <c r="H493" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="B496" t="s">
+        <v>700</v>
+      </c>
+      <c r="C496" t="n">
+        <v>3.5895</v>
+      </c>
+      <c r="D496" t="s">
+        <v>701</v>
+      </c>
+      <c r="E496" t="s">
+        <v>80</v>
+      </c>
+      <c r="F496" t="s">
+        <v>702</v>
+      </c>
+      <c r="G496" t="s">
+        <v>44</v>
+      </c>
+      <c r="H496" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="B499" t="s">
+        <v>704</v>
+      </c>
+      <c r="C499" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="D499" t="s">
+        <v>705</v>
+      </c>
+      <c r="E499" t="s">
+        <v>706</v>
+      </c>
+      <c r="F499" t="s">
+        <v>707</v>
+      </c>
+      <c r="G499" t="s">
+        <v>44</v>
+      </c>
+      <c r="H499" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="B502" t="s">
+        <v>377</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3.771</v>
+      </c>
+      <c r="D502" t="s">
+        <v>383</v>
+      </c>
+      <c r="E502" t="s">
+        <v>709</v>
+      </c>
+      <c r="F502" t="s">
+        <v>647</v>
+      </c>
+      <c r="G502" t="s">
+        <v>44</v>
+      </c>
+      <c r="H502" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="B505" t="s">
+        <v>711</v>
+      </c>
+      <c r="C505" t="n">
+        <v>2.6595</v>
+      </c>
+      <c r="D505" t="s">
+        <v>712</v>
+      </c>
+      <c r="E505" t="s">
+        <v>713</v>
+      </c>
+      <c r="F505" t="s">
+        <v>714</v>
+      </c>
+      <c r="G505" t="s">
+        <v>715</v>
+      </c>
+      <c r="H505" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="B508" t="s">
+        <v>718</v>
+      </c>
+      <c r="C508" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="D508" t="s">
+        <v>719</v>
+      </c>
+      <c r="E508" t="s">
+        <v>720</v>
+      </c>
+      <c r="F508" t="s">
+        <v>44</v>
+      </c>
+      <c r="G508" t="s">
+        <v>44</v>
+      </c>
+      <c r="H508" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="B511" t="s">
+        <v>722</v>
+      </c>
+      <c r="C511" t="n">
+        <v>3.1157</v>
+      </c>
+      <c r="D511" t="s">
+        <v>723</v>
+      </c>
+      <c r="E511" t="s">
+        <v>563</v>
+      </c>
+      <c r="F511" t="s">
+        <v>724</v>
+      </c>
+      <c r="G511" t="s">
+        <v>44</v>
+      </c>
+      <c r="H511" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="B514" t="s">
         <v>681</v>
       </c>
-      <c r="C489" t="n">
-        <v>3.1505</v>
-      </c>
-      <c r="D489" t="s">
-        <v>695</v>
-      </c>
-      <c r="E489" t="s">
-        <v>115</v>
-      </c>
-      <c r="F489" t="s">
-        <v>121</v>
-      </c>
-      <c r="G489" t="s">
-        <v>44</v>
-      </c>
-      <c r="H489" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
-      <c r="A491" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
-      <c r="B492" t="s">
-        <v>697</v>
-      </c>
-      <c r="C492" t="n">
-        <v>3.5895</v>
-      </c>
-      <c r="D492" t="s">
-        <v>698</v>
-      </c>
-      <c r="E492" t="s">
-        <v>80</v>
-      </c>
-      <c r="F492" t="s">
-        <v>699</v>
-      </c>
-      <c r="G492" t="s">
-        <v>44</v>
-      </c>
-      <c r="H492" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
-      <c r="A494" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
-      <c r="B495" t="s">
-        <v>701</v>
-      </c>
-      <c r="C495" t="n">
-        <v>3.595</v>
-      </c>
-      <c r="D495" t="s">
-        <v>702</v>
-      </c>
-      <c r="E495" t="s">
-        <v>703</v>
-      </c>
-      <c r="F495" t="s">
-        <v>704</v>
-      </c>
-      <c r="G495" t="s">
-        <v>44</v>
-      </c>
-      <c r="H495" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="A497" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="B498" t="s">
-        <v>377</v>
-      </c>
-      <c r="C498" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="D498" t="s">
-        <v>383</v>
-      </c>
-      <c r="E498" t="s">
-        <v>706</v>
-      </c>
-      <c r="F498" t="s">
-        <v>644</v>
-      </c>
-      <c r="G498" t="s">
-        <v>44</v>
-      </c>
-      <c r="H498" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="A500" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="B501" t="s">
-        <v>708</v>
-      </c>
-      <c r="C501" t="n">
-        <v>2.6595</v>
-      </c>
-      <c r="D501" t="s">
-        <v>709</v>
-      </c>
-      <c r="E501" t="s">
-        <v>710</v>
-      </c>
-      <c r="F501" t="s">
-        <v>711</v>
-      </c>
-      <c r="G501" t="s">
-        <v>712</v>
-      </c>
-      <c r="H501" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="A503" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="B504" t="s">
-        <v>715</v>
-      </c>
-      <c r="C504" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="D504" t="s">
-        <v>716</v>
-      </c>
-      <c r="E504" t="s">
-        <v>717</v>
-      </c>
-      <c r="F504" t="s">
-        <v>44</v>
-      </c>
-      <c r="G504" t="s">
-        <v>44</v>
-      </c>
-      <c r="H504" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
-      <c r="B507" t="s">
-        <v>719</v>
-      </c>
-      <c r="C507" t="n">
-        <v>3.1157</v>
-      </c>
-      <c r="D507" t="s">
-        <v>720</v>
-      </c>
-      <c r="E507" t="s">
-        <v>563</v>
-      </c>
-      <c r="F507" t="s">
-        <v>721</v>
-      </c>
-      <c r="G507" t="s">
-        <v>44</v>
-      </c>
-      <c r="H507" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
-      <c r="A509" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
-      <c r="B510" t="s">
-        <v>678</v>
-      </c>
-      <c r="C510" t="n">
+      <c r="C514" t="n">
         <v>3.4475</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D514" t="s">
         <v>142</v>
       </c>
-      <c r="E510" t="s">
+      <c r="E514" t="s">
         <v>258</v>
       </c>
-      <c r="F510" t="s">
-        <v>723</v>
-      </c>
-      <c r="G510" t="s">
-        <v>44</v>
-      </c>
-      <c r="H510" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
-      <c r="B513" t="s">
-        <v>708</v>
-      </c>
-      <c r="C513" t="n">
-        <v>4</v>
-      </c>
-      <c r="D513" t="s">
-        <v>187</v>
-      </c>
-      <c r="E513" t="s">
-        <v>44</v>
-      </c>
-      <c r="F513" t="s">
-        <v>44</v>
-      </c>
-      <c r="G513" t="s">
-        <v>44</v>
-      </c>
-      <c r="H513" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
-      <c r="A515" t="s">
-        <v>725</v>
+      <c r="F514" t="s">
+        <v>726</v>
+      </c>
+      <c r="G514" t="s">
+        <v>44</v>
+      </c>
+      <c r="H514" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="516" spans="1:8">
-      <c r="B516" t="s">
-        <v>726</v>
-      </c>
-      <c r="C516" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D516" t="s">
+      <c r="A516" t="s">
         <v>727</v>
-      </c>
-      <c r="E516" t="s">
-        <v>324</v>
-      </c>
-      <c r="F516" t="s">
-        <v>728</v>
-      </c>
-      <c r="G516" t="s">
-        <v>729</v>
-      </c>
-      <c r="H516" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="517" spans="1:8">
       <c r="B517" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="C517" t="n">
-        <v>3.4917</v>
+        <v>4</v>
       </c>
       <c r="D517" t="s">
-        <v>731</v>
+        <v>187</v>
       </c>
       <c r="E517" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F517" t="s">
-        <v>732</v>
+        <v>44</v>
       </c>
       <c r="G517" t="s">
-        <v>733</v>
+        <v>44</v>
       </c>
       <c r="H517" t="s">
         <v>44</v>
@@ -8438,100 +8459,100 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="520" spans="1:8">
       <c r="B520" t="s">
+        <v>729</v>
+      </c>
+      <c r="C520" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D520" t="s">
+        <v>730</v>
+      </c>
+      <c r="E520" t="s">
+        <v>324</v>
+      </c>
+      <c r="F520" t="s">
+        <v>731</v>
+      </c>
+      <c r="G520" t="s">
+        <v>732</v>
+      </c>
+      <c r="H520" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="B521" t="s">
+        <v>733</v>
+      </c>
+      <c r="C521" t="n">
+        <v>3.4917</v>
+      </c>
+      <c r="D521" t="s">
+        <v>734</v>
+      </c>
+      <c r="E521" t="s">
+        <v>11</v>
+      </c>
+      <c r="F521" t="s">
         <v>735</v>
       </c>
-      <c r="C520" t="n">
+      <c r="G521" t="s">
+        <v>736</v>
+      </c>
+      <c r="H521" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="B524" t="s">
+        <v>738</v>
+      </c>
+      <c r="C524" t="n">
         <v>4</v>
       </c>
-      <c r="D520" t="s">
+      <c r="D524" t="s">
         <v>187</v>
       </c>
-      <c r="E520" t="s">
-        <v>44</v>
-      </c>
-      <c r="F520" t="s">
-        <v>44</v>
-      </c>
-      <c r="G520" t="s">
-        <v>44</v>
-      </c>
-      <c r="H520" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
-      <c r="A522" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
-      <c r="B523" t="s">
-        <v>735</v>
-      </c>
-      <c r="C523" t="n">
-        <v>4</v>
-      </c>
-      <c r="D523" t="s">
-        <v>187</v>
-      </c>
-      <c r="E523" t="s">
-        <v>44</v>
-      </c>
-      <c r="F523" t="s">
-        <v>44</v>
-      </c>
-      <c r="G523" t="s">
-        <v>44</v>
-      </c>
-      <c r="H523" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="A525" t="s">
-        <v>737</v>
+      <c r="E524" t="s">
+        <v>44</v>
+      </c>
+      <c r="F524" t="s">
+        <v>44</v>
+      </c>
+      <c r="G524" t="s">
+        <v>44</v>
+      </c>
+      <c r="H524" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="526" spans="1:8">
-      <c r="B526" t="s">
-        <v>738</v>
-      </c>
-      <c r="C526" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="D526" t="s">
-        <v>329</v>
-      </c>
-      <c r="E526" t="s">
-        <v>328</v>
-      </c>
-      <c r="F526" t="s">
-        <v>44</v>
-      </c>
-      <c r="G526" t="s">
-        <v>44</v>
-      </c>
-      <c r="H526" t="s">
-        <v>44</v>
+      <c r="A526" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="527" spans="1:8">
       <c r="B527" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="C527" t="n">
-        <v>3.812</v>
+        <v>4</v>
       </c>
       <c r="D527" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="E527" t="s">
-        <v>739</v>
+        <v>44</v>
       </c>
       <c r="F527" t="s">
         <v>44</v>
@@ -8550,182 +8571,182 @@
     </row>
     <row r="530" spans="1:8">
       <c r="B530" t="s">
+        <v>741</v>
+      </c>
+      <c r="C530" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="D530" t="s">
+        <v>329</v>
+      </c>
+      <c r="E530" t="s">
+        <v>328</v>
+      </c>
+      <c r="F530" t="s">
+        <v>44</v>
+      </c>
+      <c r="G530" t="s">
+        <v>44</v>
+      </c>
+      <c r="H530" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="B531" t="s">
+        <v>704</v>
+      </c>
+      <c r="C531" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="D531" t="s">
+        <v>219</v>
+      </c>
+      <c r="E531" t="s">
+        <v>742</v>
+      </c>
+      <c r="F531" t="s">
+        <v>44</v>
+      </c>
+      <c r="G531" t="s">
+        <v>44</v>
+      </c>
+      <c r="H531" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="B534" t="s">
         <v>377</v>
       </c>
-      <c r="C530" t="n">
+      <c r="C534" t="n">
         <v>3.867</v>
       </c>
-      <c r="D530" t="s">
-        <v>741</v>
-      </c>
-      <c r="E530" t="s">
+      <c r="D534" t="s">
+        <v>744</v>
+      </c>
+      <c r="E534" t="s">
         <v>442</v>
       </c>
-      <c r="F530" t="s">
-        <v>44</v>
-      </c>
-      <c r="G530" t="s">
-        <v>44</v>
-      </c>
-      <c r="H530" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
-      <c r="A532" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
-      <c r="B533" t="s">
-        <v>743</v>
-      </c>
-      <c r="C533" t="n">
+      <c r="F534" t="s">
+        <v>44</v>
+      </c>
+      <c r="G534" t="s">
+        <v>44</v>
+      </c>
+      <c r="H534" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="B537" t="s">
+        <v>746</v>
+      </c>
+      <c r="C537" t="n">
         <v>3.333</v>
       </c>
-      <c r="D533" t="s">
+      <c r="D537" t="s">
         <v>396</v>
       </c>
-      <c r="E533" t="s">
-        <v>744</v>
-      </c>
-      <c r="F533" t="s">
-        <v>744</v>
-      </c>
-      <c r="G533" t="s">
-        <v>44</v>
-      </c>
-      <c r="H533" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="A535" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="B536" t="s">
-        <v>719</v>
-      </c>
-      <c r="C536" t="n">
+      <c r="E537" t="s">
+        <v>747</v>
+      </c>
+      <c r="F537" t="s">
+        <v>747</v>
+      </c>
+      <c r="G537" t="s">
+        <v>44</v>
+      </c>
+      <c r="H537" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="B540" t="s">
+        <v>722</v>
+      </c>
+      <c r="C540" t="n">
         <v>3.333</v>
       </c>
-      <c r="D536" t="s">
+      <c r="D540" t="s">
         <v>96</v>
       </c>
-      <c r="E536" t="s">
+      <c r="E540" t="s">
         <v>153</v>
       </c>
-      <c r="F536" t="s">
-        <v>44</v>
-      </c>
-      <c r="G536" t="s">
-        <v>44</v>
-      </c>
-      <c r="H536" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="A538" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="B539" t="s">
-        <v>747</v>
-      </c>
-      <c r="C539" t="n">
+      <c r="F540" t="s">
+        <v>44</v>
+      </c>
+      <c r="G540" t="s">
+        <v>44</v>
+      </c>
+      <c r="H540" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="B543" t="s">
+        <v>750</v>
+      </c>
+      <c r="C543" t="n">
         <v>3.811</v>
       </c>
-      <c r="D539" t="s">
-        <v>748</v>
-      </c>
-      <c r="E539" t="s">
-        <v>749</v>
-      </c>
-      <c r="F539" t="s">
+      <c r="D543" t="s">
+        <v>751</v>
+      </c>
+      <c r="E543" t="s">
+        <v>752</v>
+      </c>
+      <c r="F543" t="s">
         <v>525</v>
       </c>
-      <c r="G539" t="s">
-        <v>44</v>
-      </c>
-      <c r="H539" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="A541" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="B542" t="s">
-        <v>747</v>
-      </c>
-      <c r="C542" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D542" t="s">
-        <v>751</v>
-      </c>
-      <c r="E542" t="s">
-        <v>355</v>
-      </c>
-      <c r="F542" t="s">
-        <v>510</v>
-      </c>
-      <c r="G542" t="s">
-        <v>44</v>
-      </c>
-      <c r="H542" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
-      <c r="A544" t="s">
-        <v>752</v>
+      <c r="G543" t="s">
+        <v>44</v>
+      </c>
+      <c r="H543" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="545" spans="1:8">
-      <c r="B545" t="s">
+      <c r="A545" t="s">
         <v>753</v>
-      </c>
-      <c r="C545" t="n">
-        <v>3.555</v>
-      </c>
-      <c r="D545" t="s">
-        <v>754</v>
-      </c>
-      <c r="E545" t="s">
-        <v>755</v>
-      </c>
-      <c r="F545" t="s">
-        <v>44</v>
-      </c>
-      <c r="G545" t="s">
-        <v>44</v>
-      </c>
-      <c r="H545" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="546" spans="1:8">
       <c r="B546" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="C546" t="n">
-        <v>4</v>
+        <v>3.889</v>
       </c>
       <c r="D546" t="s">
-        <v>187</v>
+        <v>754</v>
       </c>
       <c r="E546" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="F546" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="G546" t="s">
         <v>44</v>
@@ -8736,106 +8757,106 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="B549" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="C549" t="n">
-        <v>3.833</v>
+        <v>3.555</v>
       </c>
       <c r="D549" t="s">
         <v>757</v>
       </c>
       <c r="E549" t="s">
+        <v>758</v>
+      </c>
+      <c r="F549" t="s">
+        <v>44</v>
+      </c>
+      <c r="G549" t="s">
+        <v>44</v>
+      </c>
+      <c r="H549" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
+        <v>681</v>
+      </c>
+      <c r="C550" t="n">
+        <v>4</v>
+      </c>
+      <c r="D550" t="s">
+        <v>187</v>
+      </c>
+      <c r="E550" t="s">
+        <v>44</v>
+      </c>
+      <c r="F550" t="s">
+        <v>44</v>
+      </c>
+      <c r="G550" t="s">
+        <v>44</v>
+      </c>
+      <c r="H550" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="B553" t="s">
+        <v>704</v>
+      </c>
+      <c r="C553" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D553" t="s">
+        <v>760</v>
+      </c>
+      <c r="E553" t="s">
         <v>121</v>
       </c>
-      <c r="F549" t="s">
-        <v>44</v>
-      </c>
-      <c r="G549" t="s">
-        <v>44</v>
-      </c>
-      <c r="H549" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="B552" t="s">
-        <v>446</v>
-      </c>
-      <c r="C552" t="n">
-        <v>3.649</v>
-      </c>
-      <c r="D552" t="s">
-        <v>759</v>
-      </c>
-      <c r="E552" t="s">
-        <v>29</v>
-      </c>
-      <c r="F552" t="s">
-        <v>478</v>
-      </c>
-      <c r="G552" t="s">
-        <v>44</v>
-      </c>
-      <c r="H552" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="A554" t="s">
-        <v>760</v>
+      <c r="F553" t="s">
+        <v>44</v>
+      </c>
+      <c r="G553" t="s">
+        <v>44</v>
+      </c>
+      <c r="H553" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="555" spans="1:8">
-      <c r="B555" t="s">
+      <c r="A555" t="s">
         <v>761</v>
-      </c>
-      <c r="C555" t="n">
-        <v>3.3187</v>
-      </c>
-      <c r="D555" t="s">
-        <v>762</v>
-      </c>
-      <c r="E555" t="s">
-        <v>763</v>
-      </c>
-      <c r="F555" t="s">
-        <v>764</v>
-      </c>
-      <c r="G555" t="s">
-        <v>765</v>
-      </c>
-      <c r="H555" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="556" spans="1:8">
       <c r="B556" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C556" t="n">
-        <v>3.001</v>
+        <v>3.649</v>
       </c>
       <c r="D556" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="E556" t="s">
-        <v>767</v>
+        <v>29</v>
       </c>
       <c r="F556" t="s">
-        <v>768</v>
+        <v>478</v>
       </c>
       <c r="G556" t="s">
-        <v>769</v>
+        <v>44</v>
       </c>
       <c r="H556" t="s">
         <v>44</v>
@@ -8843,78 +8864,78 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="559" spans="1:8">
       <c r="B559" t="s">
+        <v>764</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3.3187</v>
+      </c>
+      <c r="D559" t="s">
+        <v>765</v>
+      </c>
+      <c r="E559" t="s">
+        <v>766</v>
+      </c>
+      <c r="F559" t="s">
+        <v>767</v>
+      </c>
+      <c r="G559" t="s">
+        <v>768</v>
+      </c>
+      <c r="H559" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="B560" t="s">
+        <v>463</v>
+      </c>
+      <c r="C560" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="D560" t="s">
+        <v>769</v>
+      </c>
+      <c r="E560" t="s">
+        <v>770</v>
+      </c>
+      <c r="F560" t="s">
         <v>771</v>
       </c>
-      <c r="C559" t="n">
-        <v>3.2697</v>
-      </c>
-      <c r="D559" t="s">
+      <c r="G560" t="s">
         <v>772</v>
       </c>
-      <c r="E559" t="s">
+      <c r="H560" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" t="s">
         <v>773</v>
-      </c>
-      <c r="F559" t="s">
-        <v>774</v>
-      </c>
-      <c r="G559" t="s">
-        <v>44</v>
-      </c>
-      <c r="H559" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="A561" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8">
-      <c r="B562" t="s">
-        <v>776</v>
-      </c>
-      <c r="C562" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D562" t="s">
-        <v>777</v>
-      </c>
-      <c r="E562" t="s">
-        <v>778</v>
-      </c>
-      <c r="F562" t="s">
-        <v>779</v>
-      </c>
-      <c r="G562" t="s">
-        <v>44</v>
-      </c>
-      <c r="H562" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="563" spans="1:8">
       <c r="B563" t="s">
-        <v>212</v>
+        <v>774</v>
       </c>
       <c r="C563" t="n">
-        <v>3.2455</v>
+        <v>3.2697</v>
       </c>
       <c r="D563" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E563" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F563" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G563" t="s">
-        <v>782</v>
+        <v>44</v>
       </c>
       <c r="H563" t="s">
         <v>44</v>
@@ -8922,106 +8943,106 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="566" spans="1:8">
       <c r="B566" t="s">
+        <v>779</v>
+      </c>
+      <c r="C566" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D566" t="s">
+        <v>780</v>
+      </c>
+      <c r="E566" t="s">
+        <v>781</v>
+      </c>
+      <c r="F566" t="s">
+        <v>782</v>
+      </c>
+      <c r="G566" t="s">
+        <v>44</v>
+      </c>
+      <c r="H566" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="B567" t="s">
+        <v>212</v>
+      </c>
+      <c r="C567" t="n">
+        <v>3.2455</v>
+      </c>
+      <c r="D567" t="s">
+        <v>783</v>
+      </c>
+      <c r="E567" t="s">
+        <v>781</v>
+      </c>
+      <c r="F567" t="s">
         <v>784</v>
       </c>
-      <c r="C566" t="n">
-        <v>2.8437</v>
-      </c>
-      <c r="D566" t="s">
+      <c r="G567" t="s">
         <v>785</v>
       </c>
-      <c r="E566" t="s">
+      <c r="H567" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" t="s">
         <v>786</v>
-      </c>
-      <c r="F566" t="s">
-        <v>787</v>
-      </c>
-      <c r="G566" t="s">
-        <v>788</v>
-      </c>
-      <c r="H566" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8">
-      <c r="A568" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8">
-      <c r="B569" t="s">
-        <v>791</v>
-      </c>
-      <c r="C569" t="n">
-        <v>3.203</v>
-      </c>
-      <c r="D569" t="s">
-        <v>792</v>
-      </c>
-      <c r="E569" t="s">
-        <v>793</v>
-      </c>
-      <c r="F569" t="s">
-        <v>794</v>
-      </c>
-      <c r="G569" t="s">
-        <v>795</v>
-      </c>
-      <c r="H569" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="570" spans="1:8">
       <c r="B570" t="s">
-        <v>212</v>
+        <v>787</v>
       </c>
       <c r="C570" t="n">
-        <v>3.377</v>
+        <v>2.8437</v>
       </c>
       <c r="D570" t="s">
-        <v>289</v>
+        <v>788</v>
       </c>
       <c r="E570" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F570" t="s">
-        <v>206</v>
+        <v>790</v>
       </c>
       <c r="G570" t="s">
-        <v>44</v>
+        <v>791</v>
       </c>
       <c r="H570" t="s">
-        <v>44</v>
+        <v>792</v>
       </c>
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="573" spans="1:8">
       <c r="B573" t="s">
+        <v>794</v>
+      </c>
+      <c r="C573" t="n">
+        <v>3.203</v>
+      </c>
+      <c r="D573" t="s">
+        <v>795</v>
+      </c>
+      <c r="E573" t="s">
+        <v>796</v>
+      </c>
+      <c r="F573" t="s">
+        <v>797</v>
+      </c>
+      <c r="G573" t="s">
         <v>798</v>
-      </c>
-      <c r="C573" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="D573" t="s">
-        <v>799</v>
-      </c>
-      <c r="E573" t="s">
-        <v>124</v>
-      </c>
-      <c r="F573" t="s">
-        <v>800</v>
-      </c>
-      <c r="G573" t="s">
-        <v>801</v>
       </c>
       <c r="H573" t="s">
         <v>44</v>
@@ -9029,19 +9050,19 @@
     </row>
     <row r="574" spans="1:8">
       <c r="B574" t="s">
-        <v>802</v>
+        <v>212</v>
       </c>
       <c r="C574" t="n">
-        <v>3.125</v>
+        <v>3.377</v>
       </c>
       <c r="D574" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="E574" t="s">
-        <v>660</v>
+        <v>799</v>
       </c>
       <c r="F574" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="G574" t="s">
         <v>44</v>
@@ -9050,67 +9071,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
-      <c r="B575" t="s">
-        <v>803</v>
-      </c>
-      <c r="C575" t="n">
-        <v>2.968</v>
-      </c>
-      <c r="D575" t="s">
-        <v>804</v>
-      </c>
-      <c r="E575" t="s">
-        <v>805</v>
-      </c>
-      <c r="F575" t="s">
-        <v>804</v>
-      </c>
-      <c r="G575" t="s">
-        <v>806</v>
-      </c>
-      <c r="H575" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="576" spans="1:8">
-      <c r="B576" t="s">
-        <v>807</v>
-      </c>
-      <c r="C576" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D576" t="s">
-        <v>808</v>
-      </c>
-      <c r="E576" t="s">
-        <v>809</v>
-      </c>
-      <c r="F576" t="s">
-        <v>810</v>
-      </c>
-      <c r="G576" t="s">
-        <v>811</v>
-      </c>
-      <c r="H576" t="s">
-        <v>44</v>
+      <c r="A576" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="577" spans="1:8">
       <c r="B577" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C577" t="n">
-        <v>3.75</v>
+        <v>3.4573</v>
       </c>
       <c r="D577" t="s">
-        <v>325</v>
+        <v>802</v>
       </c>
       <c r="E577" t="s">
-        <v>324</v>
+        <v>803</v>
       </c>
       <c r="F577" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="G577" t="s">
         <v>44</v>
@@ -9121,55 +9101,96 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="580" spans="1:8">
       <c r="B580" t="s">
-        <v>446</v>
+        <v>805</v>
       </c>
       <c r="C580" t="n">
-        <v>3.2632</v>
+        <v>3.105</v>
       </c>
       <c r="D580" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E580" t="s">
-        <v>457</v>
+        <v>124</v>
       </c>
       <c r="F580" t="s">
-        <v>60</v>
+        <v>807</v>
       </c>
       <c r="G580" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="H580" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="581" spans="1:8">
+      <c r="B581" t="s">
+        <v>809</v>
+      </c>
+      <c r="C581" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D581" t="s">
+        <v>96</v>
+      </c>
+      <c r="E581" t="s">
+        <v>663</v>
+      </c>
+      <c r="F581" t="s">
+        <v>331</v>
+      </c>
+      <c r="G581" t="s">
+        <v>44</v>
+      </c>
+      <c r="H581" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="582" spans="1:8">
-      <c r="A582" t="s">
-        <v>815</v>
+      <c r="B582" t="s">
+        <v>810</v>
+      </c>
+      <c r="C582" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="D582" t="s">
+        <v>811</v>
+      </c>
+      <c r="E582" t="s">
+        <v>812</v>
+      </c>
+      <c r="F582" t="s">
+        <v>811</v>
+      </c>
+      <c r="G582" t="s">
+        <v>813</v>
+      </c>
+      <c r="H582" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="583" spans="1:8">
       <c r="B583" t="s">
-        <v>473</v>
+        <v>814</v>
       </c>
       <c r="C583" t="n">
-        <v>3.476</v>
+        <v>3.11</v>
       </c>
       <c r="D583" t="s">
+        <v>815</v>
+      </c>
+      <c r="E583" t="s">
         <v>816</v>
-      </c>
-      <c r="E583" t="s">
-        <v>397</v>
       </c>
       <c r="F583" t="s">
         <v>817</v>
       </c>
       <c r="G583" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H583" t="s">
         <v>44</v>
@@ -9177,16 +9198,16 @@
     </row>
     <row r="584" spans="1:8">
       <c r="B584" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C584" t="n">
-        <v>3.5125</v>
+        <v>3.75</v>
       </c>
       <c r="D584" t="s">
-        <v>819</v>
+        <v>325</v>
       </c>
       <c r="E584" t="s">
-        <v>820</v>
+        <v>324</v>
       </c>
       <c r="F584" t="s">
         <v>44</v>
@@ -9200,52 +9221,131 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="587" spans="1:8">
       <c r="B587" t="s">
+        <v>446</v>
+      </c>
+      <c r="C587" t="n">
+        <v>3.2632</v>
+      </c>
+      <c r="D587" t="s">
+        <v>821</v>
+      </c>
+      <c r="E587" t="s">
+        <v>457</v>
+      </c>
+      <c r="F587" t="s">
+        <v>60</v>
+      </c>
+      <c r="G587" t="s">
+        <v>785</v>
+      </c>
+      <c r="H587" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="B590" t="s">
+        <v>473</v>
+      </c>
+      <c r="C590" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="D590" t="s">
+        <v>823</v>
+      </c>
+      <c r="E590" t="s">
+        <v>397</v>
+      </c>
+      <c r="F590" t="s">
+        <v>824</v>
+      </c>
+      <c r="G590" t="s">
+        <v>824</v>
+      </c>
+      <c r="H590" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="B591" t="s">
+        <v>825</v>
+      </c>
+      <c r="C591" t="n">
+        <v>3.5125</v>
+      </c>
+      <c r="D591" t="s">
+        <v>826</v>
+      </c>
+      <c r="E591" t="s">
+        <v>827</v>
+      </c>
+      <c r="F591" t="s">
+        <v>44</v>
+      </c>
+      <c r="G591" t="s">
+        <v>44</v>
+      </c>
+      <c r="H591" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="B594" t="s">
         <v>399</v>
       </c>
-      <c r="C587" t="n">
+      <c r="C594" t="n">
         <v>3.6</v>
       </c>
-      <c r="D587" t="s">
+      <c r="D594" t="s">
         <v>347</v>
       </c>
-      <c r="E587" t="s">
+      <c r="E594" t="s">
         <v>289</v>
       </c>
-      <c r="F587" t="s">
-        <v>44</v>
-      </c>
-      <c r="G587" t="s">
-        <v>44</v>
-      </c>
-      <c r="H587" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="588" spans="1:8">
-      <c r="B588" t="s">
-        <v>822</v>
-      </c>
-      <c r="C588" t="n">
+      <c r="F594" t="s">
+        <v>44</v>
+      </c>
+      <c r="G594" t="s">
+        <v>44</v>
+      </c>
+      <c r="H594" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="B595" t="s">
+        <v>829</v>
+      </c>
+      <c r="C595" t="n">
         <v>3.517</v>
       </c>
-      <c r="D588" t="s">
-        <v>823</v>
-      </c>
-      <c r="E588" t="s">
-        <v>824</v>
-      </c>
-      <c r="F588" t="s">
+      <c r="D595" t="s">
+        <v>830</v>
+      </c>
+      <c r="E595" t="s">
+        <v>831</v>
+      </c>
+      <c r="F595" t="s">
         <v>138</v>
       </c>
-      <c r="G588" t="s">
-        <v>44</v>
-      </c>
-      <c r="H588" t="s">
+      <c r="G595" t="s">
+        <v>44</v>
+      </c>
+      <c r="H595" t="s">
         <v>44</v>
       </c>
     </row>
